--- a/mldata.xlsx
+++ b/mldata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uinnlandet-my.sharepoint.com/personal/nils_kvilvang_inn_no/Documents/Dokumenter/Undervisning/AKA3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="847" documentId="11_6D7EFDCE8F79A8D366075C52F321EA34FE2E8351" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{684BA455-540A-4426-880A-7F07CB8E2F14}"/>
+  <xr:revisionPtr revIDLastSave="866" documentId="11_6D7EFDCE8F79A8D366075C52F321EA34FE2E8351" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDFF88FE-C8C5-418C-B0B8-EA5609CCA29A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
